--- a/biology/Médecine/Muscle_sphincter_interne_de_l'urètre/Muscle_sphincter_interne_de_l'urètre.xlsx
+++ b/biology/Médecine/Muscle_sphincter_interne_de_l'urètre/Muscle_sphincter_interne_de_l'urètre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_sphincter_interne_de_l%27ur%C3%A8tre</t>
+          <t>Muscle_sphincter_interne_de_l'urètre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle sphincter interne de l'urètre est un faisceau de muscles lisses situé à la jonction de l'urètre et de la vessie.
 Il est en continuité avec le muscle détrusor de la vessie mais anatomiquement et fonctionnellement totalement indépendant de ce dernier.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_sphincter_interne_de_l%27ur%C3%A8tre</t>
+          <t>Muscle_sphincter_interne_de_l'urètre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En resserrant l'orifice urétral interne, c'est le muscle principal intervenant dans la continence urinaire, empêchant les fuites urinaires par une contraction tonique.
 Cette fonction est partagée avec le muscle sphincter externe de l'urètre qui est sous contrôle volontaire.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_sphincter_interne_de_l%27ur%C3%A8tre</t>
+          <t>Muscle_sphincter_interne_de_l'urètre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par le système nerveux sympathique par des fibres issues du plexus hypogastrique inférieur et du plexus vésical.
 Il est contrôlé par le nerf hypogastrique, principalement via des récepteurs α1.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_sphincter_interne_de_l%27ur%C3%A8tre</t>
+          <t>Muscle_sphincter_interne_de_l'urètre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant la miction, les neurones pré-ganglionnaires de la voie sympathique sont inhibés via des signaux provenant du centre mictionnel pontique à travers les voies réticulo-spinales descendantes.
 Lors de l'éjaculation, le muscle se contracte pour empêcher le reflux du sperme dans la vessie, phénomène appelé éjaculation rétrograde.
